--- a/Team-Data/2008-09/3-10-2008-09.xlsx
+++ b/Team-Data/2008-09/3-10-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -774,13 +841,13 @@
         <v>7</v>
       </c>
       <c r="AN2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO2" t="n">
         <v>18</v>
       </c>
       <c r="AP2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ2" t="n">
         <v>29</v>
@@ -801,13 +868,13 @@
         <v>6</v>
       </c>
       <c r="AW2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX2" t="n">
         <v>15</v>
       </c>
       <c r="AY2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ2" t="n">
         <v>5</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-10-2008-09</t>
+          <t>2009-03-10</t>
         </is>
       </c>
     </row>
@@ -848,88 +915,88 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E3" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F3" t="n">
         <v>15</v>
       </c>
       <c r="G3" t="n">
-        <v>0.762</v>
+        <v>0.766</v>
       </c>
       <c r="H3" t="n">
         <v>48.4</v>
       </c>
       <c r="I3" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J3" t="n">
-        <v>77</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="K3" t="n">
         <v>0.487</v>
       </c>
       <c r="L3" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M3" t="n">
         <v>16.5</v>
       </c>
       <c r="N3" t="n">
-        <v>0.393</v>
+        <v>0.39</v>
       </c>
       <c r="O3" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="P3" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.774</v>
+        <v>0.771</v>
       </c>
       <c r="R3" t="n">
         <v>10.6</v>
       </c>
       <c r="S3" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T3" t="n">
-        <v>42.5</v>
+        <v>42.4</v>
       </c>
       <c r="U3" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="V3" t="n">
         <v>15.8</v>
       </c>
       <c r="W3" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="X3" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y3" t="n">
         <v>4.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="AA3" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.6</v>
+        <v>101.4</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD3" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AE3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF3" t="n">
         <v>3</v>
@@ -938,7 +1005,7 @@
         <v>3</v>
       </c>
       <c r="AH3" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AI3" t="n">
         <v>9</v>
@@ -956,19 +1023,19 @@
         <v>21</v>
       </c>
       <c r="AN3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AO3" t="n">
         <v>9</v>
       </c>
       <c r="AP3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ3" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AR3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS3" t="n">
         <v>5</v>
@@ -980,13 +1047,13 @@
         <v>3</v>
       </c>
       <c r="AV3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW3" t="n">
         <v>7</v>
       </c>
       <c r="AX3" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AY3" t="n">
         <v>12</v>
@@ -995,7 +1062,7 @@
         <v>27</v>
       </c>
       <c r="BA3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB3" t="n">
         <v>9</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-10-2008-09</t>
+          <t>2009-03-10</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E4" t="n">
         <v>28</v>
       </c>
       <c r="F4" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G4" t="n">
-        <v>0.438</v>
+        <v>0.444</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
@@ -1048,7 +1115,7 @@
         <v>34.7</v>
       </c>
       <c r="J4" t="n">
-        <v>76.5</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="K4" t="n">
         <v>0.454</v>
@@ -1060,7 +1127,7 @@
         <v>16</v>
       </c>
       <c r="N4" t="n">
-        <v>0.377</v>
+        <v>0.374</v>
       </c>
       <c r="O4" t="n">
         <v>17.8</v>
@@ -1069,22 +1136,22 @@
         <v>23.9</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.745</v>
+        <v>0.743</v>
       </c>
       <c r="R4" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="S4" t="n">
         <v>28.8</v>
       </c>
       <c r="T4" t="n">
-        <v>39.4</v>
+        <v>39.5</v>
       </c>
       <c r="U4" t="n">
         <v>21.2</v>
       </c>
       <c r="V4" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="W4" t="n">
         <v>7</v>
@@ -1093,31 +1160,31 @@
         <v>4.8</v>
       </c>
       <c r="Y4" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Z4" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AA4" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AB4" t="n">
-        <v>93.09999999999999</v>
+        <v>93.3</v>
       </c>
       <c r="AC4" t="n">
-        <v>-1.5</v>
+        <v>-1.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG4" t="n">
         <v>19</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>20</v>
       </c>
       <c r="AH4" t="n">
         <v>3</v>
@@ -1138,7 +1205,7 @@
         <v>22</v>
       </c>
       <c r="AN4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO4" t="n">
         <v>25</v>
@@ -1150,7 +1217,7 @@
         <v>26</v>
       </c>
       <c r="AR4" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AS4" t="n">
         <v>27</v>
@@ -1162,10 +1229,10 @@
         <v>12</v>
       </c>
       <c r="AV4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW4" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AX4" t="n">
         <v>14</v>
@@ -1177,7 +1244,7 @@
         <v>20</v>
       </c>
       <c r="BA4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB4" t="n">
         <v>30</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-10-2008-09</t>
+          <t>2009-03-10</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" t="n">
         <v>35</v>
       </c>
       <c r="G5" t="n">
-        <v>0.444</v>
+        <v>0.453</v>
       </c>
       <c r="H5" t="n">
         <v>48.7</v>
@@ -1230,28 +1297,28 @@
         <v>37.7</v>
       </c>
       <c r="J5" t="n">
-        <v>83.59999999999999</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.451</v>
+        <v>0.452</v>
       </c>
       <c r="L5" t="n">
         <v>5.9</v>
       </c>
       <c r="M5" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="N5" t="n">
         <v>0.381</v>
       </c>
       <c r="O5" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="P5" t="n">
-        <v>25</v>
+        <v>25.3</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.792</v>
+        <v>0.79</v>
       </c>
       <c r="R5" t="n">
         <v>12.2</v>
@@ -1263,34 +1330,34 @@
         <v>42.7</v>
       </c>
       <c r="U5" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="V5" t="n">
         <v>15</v>
       </c>
       <c r="W5" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X5" t="n">
         <v>5.6</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AB5" t="n">
-        <v>101.2</v>
+        <v>101.3</v>
       </c>
       <c r="AC5" t="n">
-        <v>-1.3</v>
+        <v>-1.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AE5" t="n">
         <v>18</v>
@@ -1308,10 +1375,10 @@
         <v>8</v>
       </c>
       <c r="AJ5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL5" t="n">
         <v>24</v>
@@ -1323,7 +1390,7 @@
         <v>6</v>
       </c>
       <c r="AO5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP5" t="n">
         <v>14</v>
@@ -1344,7 +1411,7 @@
         <v>14</v>
       </c>
       <c r="AV5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW5" t="n">
         <v>9</v>
@@ -1353,16 +1420,16 @@
         <v>4</v>
       </c>
       <c r="AY5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ5" t="n">
         <v>19</v>
       </c>
       <c r="BA5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC5" t="n">
         <v>18</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-10-2008-09</t>
+          <t>2009-03-10</t>
         </is>
       </c>
     </row>
@@ -1397,91 +1464,91 @@
         <v>62</v>
       </c>
       <c r="E6" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="n">
-        <v>0.806</v>
+        <v>0.79</v>
       </c>
       <c r="H6" t="n">
         <v>48.1</v>
       </c>
       <c r="I6" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J6" t="n">
-        <v>78</v>
+        <v>77.8</v>
       </c>
       <c r="K6" t="n">
-        <v>0.469</v>
+        <v>0.47</v>
       </c>
       <c r="L6" t="n">
         <v>8</v>
       </c>
       <c r="M6" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="N6" t="n">
-        <v>0.391</v>
+        <v>0.393</v>
       </c>
       <c r="O6" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="P6" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.755</v>
+        <v>0.754</v>
       </c>
       <c r="R6" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="S6" t="n">
         <v>30.9</v>
       </c>
       <c r="T6" t="n">
-        <v>41.7</v>
+        <v>41.6</v>
       </c>
       <c r="U6" t="n">
         <v>20</v>
       </c>
       <c r="V6" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="W6" t="n">
         <v>7.6</v>
       </c>
       <c r="X6" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB6" t="n">
         <v>99.90000000000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AD6" t="n">
         <v>24</v>
       </c>
       <c r="AE6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF6" t="n">
         <v>1</v>
       </c>
       <c r="AG6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH6" t="n">
         <v>27</v>
@@ -1490,7 +1557,7 @@
         <v>17</v>
       </c>
       <c r="AJ6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK6" t="n">
         <v>5</v>
@@ -1502,7 +1569,7 @@
         <v>6</v>
       </c>
       <c r="AN6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO6" t="n">
         <v>19</v>
@@ -1514,7 +1581,7 @@
         <v>23</v>
       </c>
       <c r="AR6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AS6" t="n">
         <v>10</v>
@@ -1526,7 +1593,7 @@
         <v>25</v>
       </c>
       <c r="AV6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW6" t="n">
         <v>8</v>
@@ -1535,7 +1602,7 @@
         <v>6</v>
       </c>
       <c r="AY6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AZ6" t="n">
         <v>6</v>
@@ -1544,7 +1611,7 @@
         <v>21</v>
       </c>
       <c r="BB6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC6" t="n">
         <v>1</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-10-2008-09</t>
+          <t>2009-03-10</t>
         </is>
       </c>
     </row>
@@ -1576,34 +1643,34 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E7" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" t="n">
         <v>25</v>
       </c>
       <c r="G7" t="n">
-        <v>0.609</v>
+        <v>0.603</v>
       </c>
       <c r="H7" t="n">
         <v>48.4</v>
       </c>
       <c r="I7" t="n">
-        <v>38.2</v>
+        <v>38</v>
       </c>
       <c r="J7" t="n">
-        <v>82.8</v>
+        <v>82.7</v>
       </c>
       <c r="K7" t="n">
-        <v>0.461</v>
+        <v>0.46</v>
       </c>
       <c r="L7" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="M7" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="N7" t="n">
         <v>0.347</v>
@@ -1615,10 +1682,10 @@
         <v>22.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.821</v>
+        <v>0.82</v>
       </c>
       <c r="R7" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="S7" t="n">
         <v>31.6</v>
@@ -1627,7 +1694,7 @@
         <v>42.8</v>
       </c>
       <c r="U7" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="V7" t="n">
         <v>13.3</v>
@@ -1639,7 +1706,7 @@
         <v>5.4</v>
       </c>
       <c r="Y7" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Z7" t="n">
         <v>19.3</v>
@@ -1648,16 +1715,16 @@
         <v>20</v>
       </c>
       <c r="AB7" t="n">
-        <v>101.4</v>
+        <v>101.1</v>
       </c>
       <c r="AC7" t="n">
         <v>1.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF7" t="n">
         <v>10</v>
@@ -1666,7 +1733,7 @@
         <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AI7" t="n">
         <v>7</v>
@@ -1678,16 +1745,16 @@
         <v>9</v>
       </c>
       <c r="AL7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM7" t="n">
         <v>11</v>
       </c>
       <c r="AN7" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO7" t="n">
         <v>23</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>24</v>
       </c>
       <c r="AP7" t="n">
         <v>29</v>
@@ -1717,7 +1784,7 @@
         <v>7</v>
       </c>
       <c r="AY7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ7" t="n">
         <v>3</v>
@@ -1726,7 +1793,7 @@
         <v>24</v>
       </c>
       <c r="BB7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC7" t="n">
         <v>11</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-10-2008-09</t>
+          <t>2009-03-10</t>
         </is>
       </c>
     </row>
@@ -1836,10 +1903,10 @@
         <v>2.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF8" t="n">
         <v>10</v>
@@ -1860,13 +1927,13 @@
         <v>7</v>
       </c>
       <c r="AL8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM8" t="n">
         <v>18</v>
       </c>
       <c r="AN8" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1875,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR8" t="n">
         <v>16</v>
@@ -1884,13 +1951,13 @@
         <v>13</v>
       </c>
       <c r="AT8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW8" t="n">
         <v>3</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-10-2008-09</t>
+          <t>2009-03-10</t>
         </is>
       </c>
     </row>
@@ -2024,7 +2091,7 @@
         <v>15</v>
       </c>
       <c r="AF9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG9" t="n">
         <v>15</v>
@@ -2036,7 +2103,7 @@
         <v>23</v>
       </c>
       <c r="AJ9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK9" t="n">
         <v>18</v>
@@ -2078,7 +2145,7 @@
         <v>28</v>
       </c>
       <c r="AX9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY9" t="n">
         <v>5</v>
@@ -2093,7 +2160,7 @@
         <v>29</v>
       </c>
       <c r="BC9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-10-2008-09</t>
+          <t>2009-03-10</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-3.7</v>
       </c>
       <c r="AD10" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AE10" t="n">
         <v>24</v>
@@ -2212,7 +2279,7 @@
         <v>24</v>
       </c>
       <c r="AH10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AI10" t="n">
         <v>3</v>
@@ -2239,7 +2306,7 @@
         <v>2</v>
       </c>
       <c r="AQ10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR10" t="n">
         <v>10</v>
@@ -2263,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="AY10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ10" t="n">
         <v>23</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-10-2008-09</t>
+          <t>2009-03-10</t>
         </is>
       </c>
     </row>
@@ -2382,13 +2449,13 @@
         <v>3.9</v>
       </c>
       <c r="AD11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF11" t="n">
         <v>6</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>7</v>
       </c>
       <c r="AG11" t="n">
         <v>6</v>
@@ -2397,7 +2464,7 @@
         <v>22</v>
       </c>
       <c r="AI11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ11" t="n">
         <v>20</v>
@@ -2436,7 +2503,7 @@
         <v>16</v>
       </c>
       <c r="AV11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW11" t="n">
         <v>25</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-10-2008-09</t>
+          <t>2009-03-10</t>
         </is>
       </c>
     </row>
@@ -2486,46 +2553,46 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E12" t="n">
         <v>28</v>
       </c>
       <c r="F12" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G12" t="n">
-        <v>0.424</v>
+        <v>0.431</v>
       </c>
       <c r="H12" t="n">
         <v>48.5</v>
       </c>
       <c r="I12" t="n">
-        <v>38.9</v>
+        <v>39</v>
       </c>
       <c r="J12" t="n">
-        <v>86.2</v>
+        <v>86.3</v>
       </c>
       <c r="K12" t="n">
         <v>0.452</v>
       </c>
       <c r="L12" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="M12" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="N12" t="n">
-        <v>0.377</v>
+        <v>0.376</v>
       </c>
       <c r="O12" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="P12" t="n">
         <v>23.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.8080000000000001</v>
+        <v>0.806</v>
       </c>
       <c r="R12" t="n">
         <v>11.4</v>
@@ -2537,10 +2604,10 @@
         <v>43.6</v>
       </c>
       <c r="U12" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="V12" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="W12" t="n">
         <v>7.1</v>
@@ -2549,10 +2616,10 @@
         <v>5.2</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="AA12" t="n">
         <v>21.3</v>
@@ -2561,16 +2628,16 @@
         <v>104.8</v>
       </c>
       <c r="AC12" t="n">
-        <v>-1.7</v>
+        <v>-1.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG12" t="n">
         <v>21</v>
@@ -2585,7 +2652,7 @@
         <v>2</v>
       </c>
       <c r="AK12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL12" t="n">
         <v>4</v>
@@ -2594,7 +2661,7 @@
         <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO12" t="n">
         <v>17</v>
@@ -2603,13 +2670,13 @@
         <v>21</v>
       </c>
       <c r="AQ12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR12" t="n">
         <v>11</v>
       </c>
       <c r="AS12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT12" t="n">
         <v>2</v>
@@ -2618,7 +2685,7 @@
         <v>5</v>
       </c>
       <c r="AV12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW12" t="n">
         <v>19</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-10-2008-09</t>
+          <t>2009-03-10</t>
         </is>
       </c>
     </row>
@@ -2668,28 +2735,28 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
       </c>
       <c r="F13" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G13" t="n">
-        <v>0.234</v>
+        <v>0.238</v>
       </c>
       <c r="H13" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I13" t="n">
-        <v>35.7</v>
+        <v>35.8</v>
       </c>
       <c r="J13" t="n">
         <v>82</v>
       </c>
       <c r="K13" t="n">
-        <v>0.436</v>
+        <v>0.437</v>
       </c>
       <c r="L13" t="n">
         <v>6.4</v>
@@ -2698,22 +2765,22 @@
         <v>18.4</v>
       </c>
       <c r="N13" t="n">
-        <v>0.346</v>
+        <v>0.349</v>
       </c>
       <c r="O13" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="P13" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.742</v>
+        <v>0.741</v>
       </c>
       <c r="R13" t="n">
         <v>11.2</v>
       </c>
       <c r="S13" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="T13" t="n">
         <v>40.2</v>
@@ -2740,13 +2807,13 @@
         <v>19.8</v>
       </c>
       <c r="AB13" t="n">
-        <v>94.8</v>
+        <v>95</v>
       </c>
       <c r="AC13" t="n">
         <v>-8.699999999999999</v>
       </c>
       <c r="AD13" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE13" t="n">
         <v>28</v>
@@ -2758,25 +2825,25 @@
         <v>28</v>
       </c>
       <c r="AH13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK13" t="n">
         <v>30</v>
       </c>
       <c r="AL13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM13" t="n">
         <v>15</v>
       </c>
       <c r="AN13" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AO13" t="n">
         <v>29</v>
@@ -2791,7 +2858,7 @@
         <v>12</v>
       </c>
       <c r="AS13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT13" t="n">
         <v>21</v>
@@ -2803,7 +2870,7 @@
         <v>19</v>
       </c>
       <c r="AW13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX13" t="n">
         <v>2</v>
@@ -2812,7 +2879,7 @@
         <v>22</v>
       </c>
       <c r="AZ13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA13" t="n">
         <v>26</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-10-2008-09</t>
+          <t>2009-03-10</t>
         </is>
       </c>
     </row>
@@ -2850,58 +2917,58 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E14" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F14" t="n">
         <v>13</v>
       </c>
       <c r="G14" t="n">
-        <v>0.79</v>
+        <v>0.794</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
       </c>
       <c r="I14" t="n">
-        <v>40.7</v>
+        <v>40.6</v>
       </c>
       <c r="J14" t="n">
-        <v>85.5</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>0.476</v>
+        <v>0.475</v>
       </c>
       <c r="L14" t="n">
         <v>6.9</v>
       </c>
       <c r="M14" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="N14" t="n">
-        <v>0.362</v>
+        <v>0.365</v>
       </c>
       <c r="O14" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="P14" t="n">
-        <v>26.5</v>
+        <v>26.4</v>
       </c>
       <c r="Q14" t="n">
         <v>0.771</v>
       </c>
       <c r="R14" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="S14" t="n">
-        <v>31.6</v>
+        <v>31.8</v>
       </c>
       <c r="T14" t="n">
-        <v>44.3</v>
+        <v>44.4</v>
       </c>
       <c r="U14" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="V14" t="n">
         <v>13.5</v>
@@ -2916,31 +2983,31 @@
         <v>4.7</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AA14" t="n">
         <v>22.6</v>
       </c>
       <c r="AB14" t="n">
-        <v>108.7</v>
+        <v>108.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AD14" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="AE14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI14" t="n">
         <v>1</v>
@@ -2955,19 +3022,19 @@
         <v>12</v>
       </c>
       <c r="AM14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN14" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AO14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP14" t="n">
         <v>6</v>
       </c>
       <c r="AQ14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR14" t="n">
         <v>3</v>
@@ -2991,13 +3058,13 @@
         <v>8</v>
       </c>
       <c r="AY14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ14" t="n">
         <v>16</v>
       </c>
       <c r="BA14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BB14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-10-2008-09</t>
+          <t>2009-03-10</t>
         </is>
       </c>
     </row>
@@ -3173,7 +3240,7 @@
         <v>21</v>
       </c>
       <c r="AY15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ15" t="n">
         <v>21</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-10-2008-09</t>
+          <t>2009-03-10</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-0.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AE16" t="n">
         <v>13</v>
@@ -3337,7 +3404,7 @@
         <v>24</v>
       </c>
       <c r="AS16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT16" t="n">
         <v>29</v>
@@ -3358,7 +3425,7 @@
         <v>4</v>
       </c>
       <c r="AZ16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA16" t="n">
         <v>28</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-10-2008-09</t>
+          <t>2009-03-10</t>
         </is>
       </c>
     </row>
@@ -3414,61 +3481,61 @@
         <v>36.7</v>
       </c>
       <c r="J17" t="n">
-        <v>82.09999999999999</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>0.447</v>
+        <v>0.448</v>
       </c>
       <c r="L17" t="n">
         <v>6</v>
       </c>
       <c r="M17" t="n">
-        <v>16.8</v>
+        <v>16.6</v>
       </c>
       <c r="N17" t="n">
-        <v>0.36</v>
+        <v>0.363</v>
       </c>
       <c r="O17" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="P17" t="n">
-        <v>26.1</v>
+        <v>25.9</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.784</v>
+        <v>0.783</v>
       </c>
       <c r="R17" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="S17" t="n">
-        <v>29.1</v>
+        <v>28.9</v>
       </c>
       <c r="T17" t="n">
-        <v>41.2</v>
+        <v>41.1</v>
       </c>
       <c r="U17" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="V17" t="n">
         <v>14.2</v>
       </c>
       <c r="W17" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X17" t="n">
         <v>3.8</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z17" t="n">
         <v>24.2</v>
       </c>
       <c r="AA17" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="AB17" t="n">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="AC17" t="n">
         <v>-0.4</v>
@@ -3480,7 +3547,7 @@
         <v>16</v>
       </c>
       <c r="AF17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG17" t="n">
         <v>17</v>
@@ -3489,13 +3556,13 @@
         <v>19</v>
       </c>
       <c r="AI17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK17" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AL17" t="n">
         <v>21</v>
@@ -3504,40 +3571,40 @@
         <v>20</v>
       </c>
       <c r="AN17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO17" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AP17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR17" t="n">
         <v>7</v>
       </c>
       <c r="AS17" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AT17" t="n">
         <v>17</v>
       </c>
       <c r="AU17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV17" t="n">
+        <v>14</v>
+      </c>
+      <c r="AW17" t="n">
         <v>13</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>11</v>
       </c>
       <c r="AX17" t="n">
         <v>29</v>
       </c>
       <c r="AY17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ17" t="n">
         <v>30</v>
@@ -3546,10 +3613,10 @@
         <v>4</v>
       </c>
       <c r="BB17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-10-2008-09</t>
+          <t>2009-03-10</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-5</v>
       </c>
       <c r="AD18" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AE18" t="n">
         <v>25</v>
@@ -3674,7 +3741,7 @@
         <v>12</v>
       </c>
       <c r="AJ18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK18" t="n">
         <v>29</v>
@@ -3695,7 +3762,7 @@
         <v>16</v>
       </c>
       <c r="AQ18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR18" t="n">
         <v>5</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-10-2008-09</t>
+          <t>2009-03-10</t>
         </is>
       </c>
     </row>
@@ -3838,16 +3905,16 @@
         <v>-2.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AE19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF19" t="n">
         <v>17</v>
       </c>
       <c r="AG19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH19" t="n">
         <v>7</v>
@@ -3856,7 +3923,7 @@
         <v>27</v>
       </c>
       <c r="AJ19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK19" t="n">
         <v>28</v>
@@ -3868,7 +3935,7 @@
         <v>4</v>
       </c>
       <c r="AN19" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AO19" t="n">
         <v>14</v>
@@ -3898,7 +3965,7 @@
         <v>18</v>
       </c>
       <c r="AX19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY19" t="n">
         <v>15</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-10-2008-09</t>
+          <t>2009-03-10</t>
         </is>
       </c>
     </row>
@@ -4026,7 +4093,7 @@
         <v>10</v>
       </c>
       <c r="AF20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG20" t="n">
         <v>9</v>
@@ -4056,10 +4123,10 @@
         <v>22</v>
       </c>
       <c r="AP20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR20" t="n">
         <v>28</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-10-2008-09</t>
+          <t>2009-03-10</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F21" t="n">
         <v>37</v>
       </c>
       <c r="G21" t="n">
-        <v>0.413</v>
+        <v>0.403</v>
       </c>
       <c r="H21" t="n">
         <v>48.2</v>
@@ -4142,7 +4209,7 @@
         <v>38.6</v>
       </c>
       <c r="J21" t="n">
-        <v>86.5</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="K21" t="n">
         <v>0.446</v>
@@ -4151,25 +4218,25 @@
         <v>10.5</v>
       </c>
       <c r="M21" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="N21" t="n">
         <v>0.366</v>
       </c>
       <c r="O21" t="n">
-        <v>18.4</v>
+        <v>18.1</v>
       </c>
       <c r="P21" t="n">
-        <v>23.2</v>
+        <v>22.9</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.795</v>
+        <v>0.792</v>
       </c>
       <c r="R21" t="n">
         <v>11</v>
       </c>
       <c r="S21" t="n">
-        <v>31.4</v>
+        <v>31.3</v>
       </c>
       <c r="T21" t="n">
         <v>42.3</v>
@@ -4178,31 +4245,31 @@
         <v>21.5</v>
       </c>
       <c r="V21" t="n">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="W21" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X21" t="n">
         <v>2.3</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z21" t="n">
-        <v>20.7</v>
+        <v>20.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="AB21" t="n">
-        <v>106.2</v>
+        <v>106</v>
       </c>
       <c r="AC21" t="n">
-        <v>-2</v>
+        <v>-2.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="AE21" t="n">
         <v>22</v>
@@ -4235,16 +4302,16 @@
         <v>15</v>
       </c>
       <c r="AO21" t="n">
+        <v>24</v>
+      </c>
+      <c r="AP21" t="n">
         <v>23</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>22</v>
       </c>
       <c r="AQ21" t="n">
         <v>7</v>
       </c>
       <c r="AR21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS21" t="n">
         <v>8</v>
@@ -4259,7 +4326,7 @@
         <v>17</v>
       </c>
       <c r="AW21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4268,7 +4335,7 @@
         <v>23</v>
       </c>
       <c r="AZ21" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BA21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-10-2008-09</t>
+          <t>2009-03-10</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F22" t="n">
         <v>46</v>
       </c>
       <c r="G22" t="n">
-        <v>0.281</v>
+        <v>0.27</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
@@ -4327,7 +4394,7 @@
         <v>81.8</v>
       </c>
       <c r="K22" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L22" t="n">
         <v>4.2</v>
@@ -4336,16 +4403,16 @@
         <v>11.7</v>
       </c>
       <c r="N22" t="n">
-        <v>0.359</v>
+        <v>0.361</v>
       </c>
       <c r="O22" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="P22" t="n">
         <v>25.8</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.783</v>
+        <v>0.78</v>
       </c>
       <c r="R22" t="n">
         <v>12.4</v>
@@ -4357,13 +4424,13 @@
         <v>43.1</v>
       </c>
       <c r="U22" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="V22" t="n">
-        <v>16.7</v>
+        <v>16.5</v>
       </c>
       <c r="W22" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X22" t="n">
         <v>4.4</v>
@@ -4372,7 +4439,7 @@
         <v>4.9</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AA22" t="n">
         <v>20.8</v>
@@ -4381,13 +4448,13 @@
         <v>97.90000000000001</v>
       </c>
       <c r="AC22" t="n">
-        <v>-5.4</v>
+        <v>-5.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF22" t="n">
         <v>26</v>
@@ -4396,10 +4463,10 @@
         <v>26</v>
       </c>
       <c r="AH22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI22" t="n">
         <v>13</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>14</v>
       </c>
       <c r="AJ22" t="n">
         <v>10</v>
@@ -4435,13 +4502,13 @@
         <v>3</v>
       </c>
       <c r="AU22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AV22" t="n">
         <v>30</v>
       </c>
       <c r="AW22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX22" t="n">
         <v>22</v>
@@ -4450,7 +4517,7 @@
         <v>18</v>
       </c>
       <c r="AZ22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA22" t="n">
         <v>19</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-10-2008-09</t>
+          <t>2009-03-10</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>6.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AE23" t="n">
         <v>4</v>
@@ -4584,7 +4651,7 @@
         <v>24</v>
       </c>
       <c r="AJ23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK23" t="n">
         <v>10</v>
@@ -4596,10 +4663,10 @@
         <v>2</v>
       </c>
       <c r="AN23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP23" t="n">
         <v>4</v>
@@ -4623,7 +4690,7 @@
         <v>15</v>
       </c>
       <c r="AW23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX23" t="n">
         <v>9</v>
@@ -4635,7 +4702,7 @@
         <v>8</v>
       </c>
       <c r="BA23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB23" t="n">
         <v>8</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-10-2008-09</t>
+          <t>2009-03-10</t>
         </is>
       </c>
     </row>
@@ -4766,7 +4833,7 @@
         <v>19</v>
       </c>
       <c r="AJ24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK24" t="n">
         <v>16</v>
@@ -4811,7 +4878,7 @@
         <v>10</v>
       </c>
       <c r="AY24" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ24" t="n">
         <v>7</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-10-2008-09</t>
+          <t>2009-03-10</t>
         </is>
       </c>
     </row>
@@ -4852,28 +4919,28 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E25" t="n">
         <v>34</v>
       </c>
       <c r="F25" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G25" t="n">
-        <v>0.531</v>
+        <v>0.54</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
       </c>
       <c r="I25" t="n">
-        <v>40.2</v>
+        <v>40.1</v>
       </c>
       <c r="J25" t="n">
-        <v>80.3</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="K25" t="n">
-        <v>0.501</v>
+        <v>0.5</v>
       </c>
       <c r="L25" t="n">
         <v>6.7</v>
@@ -4885,13 +4952,13 @@
         <v>0.386</v>
       </c>
       <c r="O25" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="P25" t="n">
-        <v>26.9</v>
+        <v>27</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.755</v>
+        <v>0.757</v>
       </c>
       <c r="R25" t="n">
         <v>10.2</v>
@@ -4900,10 +4967,10 @@
         <v>31.1</v>
       </c>
       <c r="T25" t="n">
-        <v>41.2</v>
+        <v>41.3</v>
       </c>
       <c r="U25" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="V25" t="n">
         <v>16</v>
@@ -4924,37 +4991,37 @@
         <v>22.7</v>
       </c>
       <c r="AB25" t="n">
-        <v>107.5</v>
+        <v>107.3</v>
       </c>
       <c r="AC25" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
       </c>
       <c r="AF25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI25" t="n">
         <v>2</v>
       </c>
       <c r="AJ25" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AK25" t="n">
         <v>1</v>
       </c>
       <c r="AL25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM25" t="n">
         <v>19</v>
@@ -4963,13 +5030,13 @@
         <v>5</v>
       </c>
       <c r="AO25" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AP25" t="n">
         <v>5</v>
       </c>
       <c r="AQ25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR25" t="n">
         <v>25</v>
@@ -4978,7 +5045,7 @@
         <v>9</v>
       </c>
       <c r="AT25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU25" t="n">
         <v>4</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-10-2008-09</t>
+          <t>2009-03-10</t>
         </is>
       </c>
     </row>
@@ -5034,58 +5101,58 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E26" t="n">
         <v>40</v>
       </c>
       <c r="F26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G26" t="n">
-        <v>0.645</v>
+        <v>0.635</v>
       </c>
       <c r="H26" t="n">
         <v>48.3</v>
       </c>
       <c r="I26" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J26" t="n">
-        <v>79.2</v>
+        <v>79.3</v>
       </c>
       <c r="K26" t="n">
-        <v>0.465</v>
+        <v>0.463</v>
       </c>
       <c r="L26" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="M26" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="N26" t="n">
-        <v>0.379</v>
+        <v>0.38</v>
       </c>
       <c r="O26" t="n">
-        <v>18.7</v>
+        <v>18.5</v>
       </c>
       <c r="P26" t="n">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.763</v>
+        <v>0.761</v>
       </c>
       <c r="R26" t="n">
         <v>13</v>
       </c>
       <c r="S26" t="n">
-        <v>28.2</v>
+        <v>28.3</v>
       </c>
       <c r="T26" t="n">
-        <v>41.2</v>
+        <v>41.3</v>
       </c>
       <c r="U26" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="V26" t="n">
         <v>12.8</v>
@@ -5097,25 +5164,25 @@
         <v>4.7</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AA26" t="n">
         <v>21.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.5</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="AD26" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="AE26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF26" t="n">
         <v>6</v>
@@ -5124,13 +5191,13 @@
         <v>7</v>
       </c>
       <c r="AH26" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI26" t="n">
         <v>15</v>
       </c>
-      <c r="AI26" t="n">
-        <v>13</v>
-      </c>
       <c r="AJ26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK26" t="n">
         <v>8</v>
@@ -5139,19 +5206,19 @@
         <v>10</v>
       </c>
       <c r="AM26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN26" t="n">
         <v>7</v>
       </c>
       <c r="AO26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP26" t="n">
         <v>18</v>
       </c>
       <c r="AQ26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR26" t="n">
         <v>1</v>
@@ -5163,7 +5230,7 @@
         <v>16</v>
       </c>
       <c r="AU26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AV26" t="n">
         <v>5</v>
@@ -5172,22 +5239,22 @@
         <v>26</v>
       </c>
       <c r="AX26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY26" t="n">
         <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA26" t="n">
         <v>13</v>
       </c>
       <c r="BB26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC26" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-10-2008-09</t>
+          <t>2009-03-10</t>
         </is>
       </c>
     </row>
@@ -5216,19 +5283,19 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E27" t="n">
         <v>14</v>
       </c>
       <c r="F27" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G27" t="n">
-        <v>0.219</v>
+        <v>0.222</v>
       </c>
       <c r="H27" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I27" t="n">
         <v>36.1</v>
@@ -5237,22 +5304,22 @@
         <v>80.7</v>
       </c>
       <c r="K27" t="n">
-        <v>0.448</v>
+        <v>0.447</v>
       </c>
       <c r="L27" t="n">
         <v>6.8</v>
       </c>
       <c r="M27" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="N27" t="n">
-        <v>0.363</v>
+        <v>0.364</v>
       </c>
       <c r="O27" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="P27" t="n">
-        <v>25.5</v>
+        <v>25.7</v>
       </c>
       <c r="Q27" t="n">
         <v>0.801</v>
@@ -5270,7 +5337,7 @@
         <v>19.8</v>
       </c>
       <c r="V27" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="W27" t="n">
         <v>7</v>
@@ -5279,34 +5346,34 @@
         <v>4.1</v>
       </c>
       <c r="Y27" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z27" t="n">
         <v>23.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AB27" t="n">
         <v>99.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>-8.800000000000001</v>
+        <v>-8.9</v>
       </c>
       <c r="AD27" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE27" t="n">
         <v>30</v>
       </c>
       <c r="AF27" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG27" t="n">
         <v>30</v>
       </c>
       <c r="AH27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI27" t="n">
         <v>21</v>
@@ -5315,22 +5382,22 @@
         <v>13</v>
       </c>
       <c r="AK27" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AL27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM27" t="n">
         <v>14</v>
       </c>
       <c r="AN27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO27" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AP27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ27" t="n">
         <v>6</v>
@@ -5339,7 +5406,7 @@
         <v>27</v>
       </c>
       <c r="AS27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT27" t="n">
         <v>30</v>
@@ -5348,16 +5415,16 @@
         <v>27</v>
       </c>
       <c r="AV27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW27" t="n">
+        <v>22</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY27" t="n">
         <v>20</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>27</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>19</v>
       </c>
       <c r="AZ27" t="n">
         <v>28</v>
@@ -5366,7 +5433,7 @@
         <v>11</v>
       </c>
       <c r="BB27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC27" t="n">
         <v>30</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-10-2008-09</t>
+          <t>2009-03-10</t>
         </is>
       </c>
     </row>
@@ -5398,43 +5465,43 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E28" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F28" t="n">
         <v>20</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.677</v>
       </c>
       <c r="H28" t="n">
         <v>48.6</v>
       </c>
       <c r="I28" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="J28" t="n">
         <v>79.8</v>
       </c>
       <c r="K28" t="n">
-        <v>0.466</v>
+        <v>0.465</v>
       </c>
       <c r="L28" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="M28" t="n">
         <v>20.2</v>
       </c>
       <c r="N28" t="n">
-        <v>0.394</v>
+        <v>0.391</v>
       </c>
       <c r="O28" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="P28" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="Q28" t="n">
         <v>0.77</v>
@@ -5470,13 +5537,13 @@
         <v>18.6</v>
       </c>
       <c r="AB28" t="n">
-        <v>97.59999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="AD28" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="AE28" t="n">
         <v>5</v>
@@ -5506,7 +5573,7 @@
         <v>8</v>
       </c>
       <c r="AN28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO28" t="n">
         <v>30</v>
@@ -5521,7 +5588,7 @@
         <v>30</v>
       </c>
       <c r="AS28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT28" t="n">
         <v>18</v>
@@ -5539,7 +5606,7 @@
         <v>23</v>
       </c>
       <c r="AY28" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
@@ -5548,10 +5615,10 @@
         <v>30</v>
       </c>
       <c r="BB28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BC28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-10-2008-09</t>
+          <t>2009-03-10</t>
         </is>
       </c>
     </row>
@@ -5691,7 +5758,7 @@
         <v>13</v>
       </c>
       <c r="AO29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP29" t="n">
         <v>28</v>
@@ -5712,7 +5779,7 @@
         <v>7</v>
       </c>
       <c r="AV29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW29" t="n">
         <v>29</v>
@@ -5721,7 +5788,7 @@
         <v>13</v>
       </c>
       <c r="AY29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ29" t="n">
         <v>4</v>
@@ -5730,7 +5797,7 @@
         <v>22</v>
       </c>
       <c r="BB29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC29" t="n">
         <v>24</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-10-2008-09</t>
+          <t>2009-03-10</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E30" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F30" t="n">
         <v>23</v>
       </c>
       <c r="G30" t="n">
-        <v>0.641</v>
+        <v>0.635</v>
       </c>
       <c r="H30" t="n">
         <v>48.3</v>
@@ -5789,19 +5856,19 @@
         <v>4.8</v>
       </c>
       <c r="M30" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="N30" t="n">
-        <v>0.347</v>
+        <v>0.345</v>
       </c>
       <c r="O30" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="P30" t="n">
         <v>28.1</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.774</v>
+        <v>0.772</v>
       </c>
       <c r="R30" t="n">
         <v>11.7</v>
@@ -5819,13 +5886,13 @@
         <v>14.9</v>
       </c>
       <c r="W30" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X30" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="Y30" t="n">
         <v>4.8</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>4.9</v>
       </c>
       <c r="Z30" t="n">
         <v>22.2</v>
@@ -5834,25 +5901,25 @@
         <v>23.9</v>
       </c>
       <c r="AB30" t="n">
-        <v>103.2</v>
+        <v>103.1</v>
       </c>
       <c r="AC30" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="AD30" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE30" t="n">
         <v>7</v>
       </c>
       <c r="AF30" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG30" t="n">
         <v>7</v>
       </c>
-      <c r="AG30" t="n">
-        <v>8</v>
-      </c>
       <c r="AH30" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI30" t="n">
         <v>6</v>
@@ -5870,7 +5937,7 @@
         <v>26</v>
       </c>
       <c r="AN30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO30" t="n">
         <v>3</v>
@@ -5879,7 +5946,7 @@
         <v>3</v>
       </c>
       <c r="AQ30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR30" t="n">
         <v>9</v>
@@ -5894,16 +5961,16 @@
         <v>1</v>
       </c>
       <c r="AV30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW30" t="n">
         <v>1</v>
       </c>
       <c r="AX30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ30" t="n">
         <v>24</v>
@@ -5915,7 +5982,7 @@
         <v>6</v>
       </c>
       <c r="BC30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-10-2008-09</t>
+          <t>2009-03-10</t>
         </is>
       </c>
     </row>
@@ -6028,10 +6095,10 @@
         <v>28</v>
       </c>
       <c r="AF31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AH31" t="n">
         <v>29</v>
@@ -6058,10 +6125,10 @@
         <v>26</v>
       </c>
       <c r="AP31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR31" t="n">
         <v>8</v>
@@ -6079,7 +6146,7 @@
         <v>12</v>
       </c>
       <c r="AW31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX31" t="n">
         <v>25</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-10-2008-09</t>
+          <t>2009-03-10</t>
         </is>
       </c>
     </row>
